--- a/wwwroot/UpdatedPersonlist.xlsx
+++ b/wwwroot/UpdatedPersonlist.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12012" uniqueCount="8056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12024" uniqueCount="8065">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -24180,6 +24180,33 @@
   </si>
   <si>
     <t xml:space="preserve">23509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/09/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">izay.carter0509@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8649156152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Cunningham Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29687</t>
   </si>
 </sst>
 </file>
@@ -24228,14 +24255,6 @@
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="59.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -62275,6 +62294,44 @@
         <v>8055</v>
       </c>
     </row>
+    <row r="1002">
+      <c r="A1002" t="s">
+        <v>8056</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>8057</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>8058</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>8059</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>8060</v>
+      </c>
+      <c r="H1002" t="s">
+        <v>8061</v>
+      </c>
+      <c r="I1002" t="s">
+        <v>8062</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>8063</v>
+      </c>
+      <c r="K1002" t="s">
+        <v>463</v>
+      </c>
+      <c r="L1002" t="s">
+        <v>8064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
